--- a/temp.xlsx
+++ b/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,25 +468,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VGG3D</t>
+          <t>Baseline3DCNN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>110x110x110</t>
+          <t>193x229x193</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>60.3030303030303</v>
-      </c>
-      <c r="E2" t="n">
-        <v>57.29166666666666</v>
-      </c>
+        <v>66.66666666666667</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>55.41666666666666</v>
+        <v>56.94444444444445</v>
       </c>
     </row>
     <row r="3">
@@ -497,19 +495,63 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>110x110x110</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60.3030303030303</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57.29166666666666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>55.41666666666666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>160x160x96</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
         <v>74.44444444444444</v>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
         <v>65.47619047619048</v>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>193x229x193</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.6969696969697</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dimensions</t>
+          <t>Modality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>num_results</t>
+          <t>Dimension</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>Experiment</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MRI</t>
+          <t>Feature</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>F-Statistic</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P-Value</t>
         </is>
       </c>
     </row>
@@ -473,85 +478,558 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>193x229x193</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>init_filters</t>
+        </is>
+      </c>
       <c r="F2" t="n">
-        <v>56.94444444444445</v>
+        <v>4.211850645035438</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04711026875128121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VGG3D</t>
+          <t>Baseline3DCNN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110x110x110</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60.3030303030303</v>
-      </c>
-      <c r="E3" t="n">
-        <v>57.29166666666666</v>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>193x229x193</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>kernel_size</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>55.41666666666666</v>
+        <v>1.903329095288153</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1950500152161782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VGG3D</t>
+          <t>Baseline3DCNN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160x160x96</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.44444444444444</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>193x229x193</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>loss_criterion</t>
+        </is>
+      </c>
       <c r="F4" t="n">
-        <v>65.47619047619048</v>
+        <v>5.704825027420766</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03423010375181661</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VGG3D</t>
+          <t>Baseline3DCNN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>193x229x193</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>54.6969696969697</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>batch_size</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8396481830657605</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4630729545112522</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>110x110x110</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2516588842467456</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6656857915694799</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>160x160x96</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5293998071460205</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5195023260895207</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>160x160x96</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>optimizer</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0001553733275787785</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9904588492017824</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>160x160x96</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>batch_size</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4091575463086753</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5460297806546445</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>110x110x110</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>19.50045913682282</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.007513814353172749</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>110x110x110</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>optimizer</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1031423823910534</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7574669888138644</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>110x110x110</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>batch_size</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.07234824062677173</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7957033227436474</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>110x110x110</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1997358864311628</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6986697161469145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>110x110x110</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>optimizer</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>10.38293918673692</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03221138666702519</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>110x110x110</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>loss_criterion</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4.14351471313496</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1115048160147225</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>110x110x110</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>batch_size</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>10.38293918673691</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03221138666702521</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>160x160x96</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7111430056172812</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5441957417775591</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>VGG3D</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>160x160x96</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>optimizer</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.259525587067959</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1764991602542636</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,124 +457,180 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>Research Group</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dimensions</t>
+          <t>dataset_split</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>num_results</t>
+          <t>Number_of_Subjects</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>Average_Age</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MRI</t>
+          <t>Age_Std_Dev</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>Average_Age_with_Std</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Baseline3DCNN</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>193x229x193</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>56.94444444444445</v>
+        <v>76.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>76.7 ± 6.7</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>VGG3D</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>110x110x110</t>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="D3" t="n">
-        <v>60.3030303030303</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>57.29166666666666</v>
-      </c>
-      <c r="F3" t="n">
-        <v>55.41666666666666</v>
+        <v>6.4</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>77.0 ± 6.4</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>VGG3D</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160x160x96</t>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>validation</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>74.44444444444444</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>65.47619047619048</v>
+        <v>76.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>76.5 ± 6.3</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>VGG3D</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>193x229x193</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>54.6969696969697</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>76.6 ± 8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>157</v>
+      </c>
+      <c r="D6" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>74.9 ± 7.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>validation</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>75.6 ± 7.6</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>